--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/20/seed1/result_data_KNN.xlsx
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.516</v>
+        <v>16.452</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.71</v>
+        <v>16.322</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.23</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.69</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="9">
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.654</v>
+        <v>16.618</v>
       </c>
     </row>
     <row r="17">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.008</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.442</v>
+        <v>16.482</v>
       </c>
     </row>
     <row r="22">
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.476</v>
+        <v>17.006</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.94</v>
+        <v>16.941</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.48</v>
+        <v>16.321</v>
       </c>
     </row>
     <row r="31">
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.998</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="33">
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>16.58</v>
+        <v>16.498</v>
       </c>
     </row>
     <row r="41">
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.25</v>
+        <v>16.858</v>
       </c>
     </row>
     <row r="47">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>16.962</v>
+        <v>16.765</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.822</v>
+        <v>16.826</v>
       </c>
     </row>
     <row r="53">
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.644</v>
+        <v>16.587</v>
       </c>
     </row>
     <row r="58">
@@ -1443,7 +1443,7 @@
         <v>-9.48</v>
       </c>
       <c r="E59" t="n">
-        <v>16.624</v>
+        <v>16.482</v>
       </c>
     </row>
     <row r="60">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.696</v>
+        <v>16.588</v>
       </c>
     </row>
     <row r="63">
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.558</v>
+        <v>17.482</v>
       </c>
     </row>
     <row r="67">
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.472</v>
+        <v>16.268</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>16.622</v>
+        <v>16.484</v>
       </c>
     </row>
     <row r="75">
@@ -1749,7 +1749,7 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>16.98</v>
+        <v>16.683</v>
       </c>
     </row>
     <row r="78">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.794</v>
+        <v>17.867</v>
       </c>
     </row>
     <row r="93">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.4</v>
+        <v>16.768</v>
       </c>
     </row>
     <row r="101">
